--- a/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
+++ b/InputData/elec/BTaDLP/BAU Trans and Distr Loss Perc.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emmdc\Google Drive\PPE\Cenergia - compartilhadas\Projeto EPS (2019-2020)\Variáveis EPS Brasil\Eduardo_Elec_High_2020_02_02\revisão 26 de abril de 2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d08 elec\BTaDLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCF3F41A-9D0D-4C15-887F-3AED28439B4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88FE615-B3E6-4299-8B8C-472CDDEE6E62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="168" yWindow="492" windowWidth="22728" windowHeight="11004" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="About" sheetId="8" r:id="rId1"/>
-    <sheet name="Calculations" sheetId="7" r:id="rId2"/>
+    <sheet name="About" sheetId="1" r:id="rId1"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
     <sheet name="BTaDLP" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -25,6 +25,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,23 +34,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>BTaDLP BAU Transmission and Distribution Loss Percentage</t>
   </si>
   <si>
+    <t>No meaningful trend since 2000, so we assume T&amp;D losses going forward are constant at the average value for this period.</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
     <t>Year</t>
   </si>
   <si>
     <t>Notes:</t>
   </si>
   <si>
-    <t>This variable represents the percentage difference in generation</t>
-  </si>
-  <si>
     <t>Trans and Dist Loss Perc (dimensionless)</t>
   </si>
   <si>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>ANEEL (Agência Nacional de Energia Elétrica)</t>
+  </si>
+  <si>
+    <t>Brazilian Electricity Regulatory Agency</t>
+  </si>
+  <si>
+    <t>Perdas de Energia Elétrica na Distribuição</t>
+  </si>
+  <si>
+    <t>Losses in the Electric Power Distribution</t>
+  </si>
+  <si>
+    <t>https://portalrelatorios.aneel.gov.br/luznatarifa/perdasenergias#!</t>
+  </si>
+  <si>
+    <t>This variable represents the percentage difference in generation and delivered energy from the Brazilian power system.</t>
+  </si>
+  <si>
+    <t>Technical losses represent the physical amount of electricity generate but not delivered.</t>
+  </si>
+  <si>
+    <t>Non-technical losses represent thefts of electricity in the distribution systems</t>
+  </si>
+  <si>
+    <t>Technical and Non-technical losses in the National Interconnected System (SIN)</t>
+  </si>
+  <si>
     <t>Perda Técnica (%)</t>
   </si>
   <si>
@@ -58,58 +93,29 @@
     <t>Perda Total (%)</t>
   </si>
   <si>
-    <t>Distribution losses</t>
-  </si>
-  <si>
-    <t>Transmission losses (base: generation)</t>
-  </si>
-  <si>
-    <t>% of generation that actually is delivered to consumers</t>
-  </si>
-  <si>
-    <t>Total losses</t>
-  </si>
-  <si>
-    <t>Perdas de Energia Elétrica na Distribuição</t>
-  </si>
-  <si>
-    <t>Sources:</t>
-  </si>
-  <si>
-    <t>https://www.aneel.gov.br/documents/654800/18766993/Relat%C3%B3rio+Perdas+de+Energia_+Edi%C3%A7%C3%A3o+1-2019.pdf/b43e024e-5017-1921-0e66-024fa1bed575</t>
-  </si>
-  <si>
-    <t>Perdas de Energia</t>
-  </si>
-  <si>
-    <t>https://www.aneel.gov.br/metodologia-distribuicao/-/asset_publisher/e2INtBH4EC4e/content/perdas/654800?inheritRedirect=false</t>
-  </si>
-  <si>
-    <t>and delivered energy from the Brazilian power system.</t>
-  </si>
-  <si>
-    <t>ANEEL (Agência Nacional de Energia Elétrica)</t>
-  </si>
-  <si>
-    <t>Brazilian Electricity Regulatory Agency</t>
-  </si>
-  <si>
-    <t>Losses in the Electric Power Distribution</t>
-  </si>
-  <si>
-    <t>Energy Losses</t>
+    <t>The previous version (2.1.1) used total losses that include a component of thefts.</t>
+  </si>
+  <si>
+    <t>In this version, we used only the technical losses which are inherent of the physical system.</t>
+  </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>We assumed T&amp;D losses going forward are constant</t>
+  </si>
+  <si>
+    <t>at the average value the period 2016-2022.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +160,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -184,59 +198,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -261,23 +259,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>149471</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>17647</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>113510</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>5823</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2">
+        <xdr:cNvPr id="4" name="Imagem 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2B9A25E-A767-41F9-9628-B43D1EF474AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBE3086-7CC8-C43D-AEB3-D4C416D25E8E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -293,8 +291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4911971" y="2428875"/>
-          <a:ext cx="6040376" cy="3399635"/>
+          <a:off x="3718560" y="525780"/>
+          <a:ext cx="7313403" cy="4754880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,23 +303,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>62731</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>94268</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>132662</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>183937</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>94562</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagem 3">
+        <xdr:cNvPr id="5" name="Imagem 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02053594-4BA9-4D53-9FDB-D5F01CFE7FC7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25FDA29C-FDE5-4C65-A801-7C6AE64DA440}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -337,8 +335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10997431" y="1943100"/>
-          <a:ext cx="6127537" cy="4285562"/>
+          <a:off x="11026140" y="548640"/>
+          <a:ext cx="6279937" cy="4117922"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -351,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -391,9 +389,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -426,26 +424,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -478,26 +459,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -670,16 +634,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCDB71E-3C42-4F20-90EF-0AD0B9665D6E}">
-  <dimension ref="A1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="63.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="19"/>
-    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -692,343 +657,433 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
-        <v>2019</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{770CDFDB-0B31-47DC-8E06-966E72EB0BCC}"/>
-    <hyperlink ref="B11" r:id="rId2" xr:uid="{BA6A5839-17E4-4DC6-AB64-C2302C9CB7D6}"/>
+    <hyperlink ref="B6" r:id="rId1" location="!" xr:uid="{58F9F47D-E2FD-4C16-A0A3-C9189CF90A28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671AA88F-43F7-4B5F-AC1F-61E1E2F689BA}">
-  <dimension ref="A1:D21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="10"/>
-      <c r="B1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="11"/>
+      <c r="B1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="12">
         <v>2008</v>
       </c>
-      <c r="B2" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C2" s="11">
-        <v>6.4</v>
-      </c>
-      <c r="D2" s="11">
-        <f>SUM(B2,C2)</f>
-        <v>13.600000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="B2" s="14">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="C2" s="14">
+        <v>6.4600000000000005E-2</v>
+      </c>
+      <c r="D2" s="14">
+        <f>B2+C2</f>
+        <v>0.1371</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12">
         <v>2009</v>
       </c>
-      <c r="B3" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C3" s="11">
-        <v>7</v>
-      </c>
-      <c r="D3" s="11">
-        <f t="shared" ref="D3:D12" si="0">SUM(B3,C3)</f>
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="B3" s="14">
+        <v>7.2300000000000003E-2</v>
+      </c>
+      <c r="C3" s="14">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D16" si="0">B3+C3</f>
+        <v>0.14279999999999998</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="12">
         <v>2010</v>
       </c>
-      <c r="B4" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C4" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="D4" s="11">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="B4" s="14">
+        <v>7.2099999999999997E-2</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6.59E-2</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="12">
         <v>2011</v>
       </c>
-      <c r="B5" s="11">
-        <v>7.1</v>
-      </c>
-      <c r="C5" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="0"/>
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="B5" s="14">
+        <v>7.1599999999999997E-2</v>
+      </c>
+      <c r="C5" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1341</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="12">
         <v>2012</v>
       </c>
-      <c r="B6" s="11">
-        <v>7.1</v>
-      </c>
-      <c r="C6" s="11">
-        <v>6.7</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="B6" s="14">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="C6" s="14">
+        <v>6.7599999999999993E-2</v>
+      </c>
+      <c r="D6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1386</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="12">
         <v>2013</v>
       </c>
-      <c r="B7" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C7" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="D7" s="11">
-        <f t="shared" si="0"/>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="B7" s="14">
+        <v>7.1800000000000003E-2</v>
+      </c>
+      <c r="C7" s="14">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1348</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="12">
         <v>2014</v>
       </c>
-      <c r="B8" s="11">
-        <v>7.2</v>
-      </c>
-      <c r="C8" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="D8" s="11">
-        <f t="shared" si="0"/>
-        <v>13.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="B8" s="14">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="C8" s="14">
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="D8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="12">
         <v>2015</v>
       </c>
-      <c r="B9" s="11">
-        <v>7.4</v>
-      </c>
-      <c r="C9" s="11">
-        <v>6.2</v>
-      </c>
-      <c r="D9" s="11">
-        <f t="shared" si="0"/>
-        <v>13.600000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="B9" s="14">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="C9" s="14">
+        <v>6.1900000000000004E-2</v>
+      </c>
+      <c r="D9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13590000000000002</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="12">
         <v>2016</v>
       </c>
-      <c r="B10" s="11">
-        <v>7.4</v>
-      </c>
-      <c r="C10" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="D10" s="11">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="B10" s="14">
+        <v>7.4900000000000008E-2</v>
+      </c>
+      <c r="C10" s="14">
+        <v>6.5599999999999992E-2</v>
+      </c>
+      <c r="D10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14050000000000001</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="12">
         <v>2017</v>
       </c>
-      <c r="B11" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="C11" s="11">
-        <v>6.3</v>
-      </c>
-      <c r="D11" s="11">
-        <f t="shared" si="0"/>
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="B11" s="14">
+        <v>7.46E-2</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6.2400000000000004E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="12">
         <v>2018</v>
       </c>
-      <c r="B12" s="11">
-        <v>7.5</v>
-      </c>
-      <c r="C12" s="11">
-        <v>6.6</v>
-      </c>
-      <c r="D12" s="11">
-        <f t="shared" si="0"/>
-        <v>14.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="15">
-        <v>0.13600000000000001</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>10</v>
+      <c r="B12" s="14">
+        <v>7.4299999999999991E-2</v>
+      </c>
+      <c r="C12" s="14">
+        <v>6.5099999999999991E-2</v>
+      </c>
+      <c r="D12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13939999999999997</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B13" s="14">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="C13" s="14">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1421</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B14" s="14">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="C14" s="14">
+        <v>7.4700000000000003E-2</v>
+      </c>
+      <c r="D14" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14879999999999999</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="14">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="C15" s="14">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="D15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.13980000000000001</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="12">
+        <v>2022</v>
       </c>
       <c r="B16" s="14">
-        <f>(1-B14)*(1-B15)</f>
-        <v>0.82943999999999996</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7"/>
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="C16" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.1363</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="17">
-        <f>1-B16</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="19">
+        <f>AVERAGE(B10:B16)</f>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
+      <c r="A20" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="7"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="6">
+        <f>AVERAGE(D2:D23)</f>
+        <v>0.13868000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1044,7 +1099,9 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:AK2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1054,7 +1111,7 @@
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1">
         <v>2015</v>
@@ -1166,152 +1223,144 @@
       </c>
     </row>
     <row r="2" spans="1:37" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="C2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="D2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="E2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="F2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="G2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="H2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="I2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="J2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="K2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="L2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="M2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="N2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="O2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="P2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="Q2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="R2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="S2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="T2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="U2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="V2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="W2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="X2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="Y2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="Z2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AA2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AB2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AC2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AD2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AE2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AF2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AG2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AH2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AI2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AJ2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
-      </c>
-      <c r="AK2" s="21">
-        <f>Calculations!$B17</f>
-        <v>0.17056000000000004</v>
+      <c r="A2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.4900000000000008E-2</v>
+      </c>
+      <c r="D2" s="4">
+        <v>7.46E-2</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7.4299999999999991E-2</v>
+      </c>
+      <c r="F2" s="4">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>7.3800000000000004E-2</v>
+      </c>
+      <c r="J2" s="4">
+        <f>Calculations!B17</f>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="K2" s="4">
+        <f>$J2</f>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="L2" s="17">
+        <f t="shared" ref="L2:AK2" si="0">$J2</f>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="M2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="N2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="O2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="P2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="Q2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="R2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="S2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="T2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="U2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="V2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="W2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="X2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="Y2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="Z2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AA2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AB2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AC2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AD2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AE2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AF2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AG2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AH2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AI2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AJ2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
+      </c>
+      <c r="AK2" s="17">
+        <f t="shared" si="0"/>
+        <v>7.4228571428571422E-2</v>
       </c>
     </row>
   </sheetData>
